--- a/biology/Zoologie/Hespérie_des_sanguisorbes/Hespérie_des_sanguisorbes.xlsx
+++ b/biology/Zoologie/Hespérie_des_sanguisorbes/Hespérie_des_sanguisorbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_sanguisorbes</t>
+          <t>Hespérie_des_sanguisorbes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spialia sertorius
 L’Hespérie des sanguisorbes ou Roussâtre (Spialia sertorius) est une espèce de lépidoptères de la famille des Hesperiidae et de la sous-famille des Pyrginae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_sanguisorbes</t>
+          <t>Hespérie_des_sanguisorbes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Spialia sertorius a été décrite par l'entomologiste allemand Johann Centurius von Hoffmannsegg en 1804, sous le nom initial d'Hesperia sertorius[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Spialia sertorius a été décrite par l'entomologiste allemand Johann Centurius von Hoffmannsegg en 1804, sous le nom initial d'Hesperia sertorius.
 Deux taxons qui étaient auparavant ses sous-espèces sont maintenant considérées comme des espèces distinctes : Spialia therapne (Rambur, 1832), présente en Corse et Sardaigne, et Spialia ali (Oberthür, 1881), présente en Afrique du Nord.
-Une espèce cryptique appelée Spialia rosae a aussi été découverte en 2016 en Espagne : morphologiquement identique à S. sertorius, elle peut cohabiter avec elle mais en diffère par son ADN mitochondrial et son écologie[2].
+Une espèce cryptique appelée Spialia rosae a aussi été découverte en 2016 en Espagne : morphologiquement identique à S. sertorius, elle peut cohabiter avec elle mais en diffère par son ADN mitochondrial et son écologie.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_sanguisorbes</t>
+          <t>Hespérie_des_sanguisorbes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>en français : l'Hespérie des sanguisorbes, la Roussâtre
 en anglais : Red Underwing Skipper
 en allemand : Roter Dickkopffalter
-en espagnol : Sertorio[1].</t>
+en espagnol : Sertorio.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_sanguisorbes</t>
+          <t>Hespérie_des_sanguisorbes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +594,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon d'une envergure de 22 mm à 26 mm, au dessus des ailes marron roux à frange blanche entrecoupée de sombre, orné de petites taches blanches.
 			Spialia s. sertorius ♂  MHNT
 			Spialia s. sertorius ♂ △
-Le revers est de couleur jaune orangé taché de blanc[3].
+Le revers est de couleur jaune orangé taché de blanc.
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_sanguisorbes</t>
+          <t>Hespérie_des_sanguisorbes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,10 +632,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie des sanguisorbes vole en deux générations de début avril à juin puis de juillet à août[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Sanguisorba, dont Sanguisorba minor et Sanguisorba magnolii pour Spialia sertorius ali, des  Rubus dont Rubus idaeus, des Potentilla dont Potentilla verna[1],[3].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie des sanguisorbes vole en deux générations de début avril à juin puis de juillet à août.
 </t>
         </is>
       </c>
@@ -628,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_des_sanguisorbes</t>
+          <t>Hespérie_des_sanguisorbes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +664,126 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Sanguisorba, dont Sanguisorba minor et Sanguisorba magnolii pour Spialia sertorius ali, des  Rubus dont Rubus idaeus, des Potentilla dont Potentilla verna,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_des_sanguisorbes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_des_sanguisorbes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie des sanguisorbes réside en Afrique du Nord, Maroc, Algérie et Tunisie, dans le sud-ouest de l'Europe, Espagne, Portugal, France, Belgique, Allemagne, Suisse, Autriche et Italie et, ce qui reste à confirmer, dans l'ouest de l'Asie au Tibet et dans l'Altaï[1],[3].
-L'Hespérie des sanguisorbes est présente dans presque toute la France métropolitaine, elle n'est absente que de quelques départements dont le Finistère. En Corse, elle est remplacée par Spialia therapne[4].
-Biotope
-L'Hespérie des sanguisorbes réside dans les milieux broussailleux fleuris[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie des sanguisorbes réside en Afrique du Nord, Maroc, Algérie et Tunisie, dans le sud-ouest de l'Europe, Espagne, Portugal, France, Belgique, Allemagne, Suisse, Autriche et Italie et, ce qui reste à confirmer, dans l'ouest de l'Asie au Tibet et dans l'Altaï,.
+L'Hespérie des sanguisorbes est présente dans presque toute la France métropolitaine, elle n'est absente que de quelques départements dont le Finistère. En Corse, elle est remplacée par Spialia therapne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_des_sanguisorbes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_des_sanguisorbes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie des sanguisorbes réside dans les milieux broussailleux fleuris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_des_sanguisorbes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_des_sanguisorbes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
